--- a/medicine/Enfance/Charlotte_Moundlic/Charlotte_Moundlic.xlsx
+++ b/medicine/Enfance/Charlotte_Moundlic/Charlotte_Moundlic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlotte Moundlic est une autrice d'ouvrages pour la jeunesse née en 1970. Elle est également directrice artistique et éditrice de bandes dessinées.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entrée en 1990 en tant que stagiaire au magazine « Pomme d'api », elle devient ensuite maquettiste à Images Doc puis à Okapi, puis en 1995 à Bayard Éditions jeunesse. Commence ensuite une carrière de directrice artistique, d'abord du magazine Je Bouquine. Puis, en 2003, du secteur jeunesse &amp; Père Castor chez Flammarion. Elle entre en 2013 dans le groupe École des loisirs pour le lancement des Éditions Rue de Sèvres en tant que directrice artistique de l'ensemble du catalogue et éditrice de la partie jeunesse. 
-En parallèle, elle exerce depuis 2005 une activité d'auteure jeunesse et a publié une trentaine de titres albums illustrés et romans chez différents éditeurs (Flammarion, Albin Michel, Thierry Magnier et Lito)[1],[2].
-Son album « croûte » a été traduit en anglais (« Scar ») et en chinois (小伤疤, xiǎo shāngbā, « petite cicatrice »)[3].
+En parallèle, elle exerce depuis 2005 une activité d'auteure jeunesse et a publié une trentaine de titres albums illustrés et romans chez différents éditeurs (Flammarion, Albin Michel, Thierry Magnier et Lito),.
+Son album « croûte » a été traduit en anglais (« Scar ») et en chinois (小伤疤, xiǎo shāngbā, « petite cicatrice »).
 Mère de deux filles, elle habite à Les Lilas.
 </t>
         </is>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums illustrées
-2017 :
+          <t>Albums illustrées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2017 :
 Ça fait du bien de se lever le matin, illustré par Charlotte Gastaut, Albin Michel jeunesse
 Une journée sans ma sœur, illustré par Charlotte Gastaut, Albin Michel jeunesse
 Le jour pourri de mon élection, dessins de Ronan Badel, Albin Michel jeunesse
@@ -557,7 +576,7 @@
 La boum ou La plus mauvaise idée de ma vie, illustrations Olivier Tallec, Père Castor-Flammarion,
 Chamalo fait des bêtises, illustrations Marion Billet, Père Castor-Flammarion
 Chamalo va à la plage, illustrations Marion Billet, Père Castor-Flammarion
-Le papa de Simon[4] : d'après une nouvelle de Guy de Maupassant / adaptation de Charlotte Moundlic ; illustrations de François Roca, Milan
+Le papa de Simon : d'après une nouvelle de Guy de Maupassant / adaptation de Charlotte Moundlic ; illustrations de François Roca, Milan
 2013 :
 Chamalo aime l'école, illustrations Marion Billet, Père Castor-Flammarion
 Chamalo dort chez Papouille, illustrations Marion Billet, Père Castor-Flammarion
@@ -587,11 +606,45 @@
 Maminie, co-écrit avec Hervé Legoff, Père Castor
 Chamalo, illustrations Marion Billet, Père Castor-Flammarion
 2009 :
-La croûte, Olivier Tallec, Père Castor [5],[6],[7]
-Juste en fermant les yeux[8] , Thierry Magnier
-2007 : Garde à vous, les poux !, co-écrit avec Fabrice Parme, Père Castor-Flammarion
-Romans
-2016 : Petit maboul : roman, Thierry Magnier
+La croûte, Olivier Tallec, Père Castor 
+Juste en fermant les yeux , Thierry Magnier
+2007 : Garde à vous, les poux !, co-écrit avec Fabrice Parme, Père Castor-Flammarion</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charlotte_Moundlic</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlotte_Moundlic</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouvrages </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2016 : Petit maboul : roman, Thierry Magnier
 2015 : Je suis le fruit de leur amour, Thierry Magnier
 2012 : Seul sous la pluie, Thierry Magnier
 2011 : Presque ado, Thierry Magnier
